--- a/biology/Médecine/Carcinome_urothélial_papillaire_non_infiltrant_de_haut_grade/Carcinome_urothélial_papillaire_non_infiltrant_de_haut_grade.xlsx
+++ b/biology/Médecine/Carcinome_urothélial_papillaire_non_infiltrant_de_haut_grade/Carcinome_urothélial_papillaire_non_infiltrant_de_haut_grade.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Carcinome_uroth%C3%A9lial_papillaire_non_infiltrant_de_haut_grade</t>
+          <t>Carcinome_urothélial_papillaire_non_infiltrant_de_haut_grade</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le carcinome urothélial papillaire infiltrant de haut grade (OMS 1973 G2b et G3) est un type de lésion urothéliale papillaire.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Carcinome_uroth%C3%A9lial_papillaire_non_infiltrant_de_haut_grade</t>
+          <t>Carcinome_urothélial_papillaire_non_infiltrant_de_haut_grade</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,16 +523,16 @@
           <t>Microscopie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Tumeur papillaire exophytique et/ou endophytique
 désorganisation architecturale
 perte de maturation en surface
 atypies cytonucléaires marquées
 nombreuses mitoses étagées
-noyaux globuleux, hyperchromatiques et nucléolés
-Diagnostic différentiel morphologique
-Carcinome urothélial papillaire non infiltrant de bas grade</t>
+noyaux globuleux, hyperchromatiques et nucléolés</t>
         </is>
       </c>
     </row>
@@ -530,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Carcinome_uroth%C3%A9lial_papillaire_non_infiltrant_de_haut_grade</t>
+          <t>Carcinome_urothélial_papillaire_non_infiltrant_de_haut_grade</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,13 +557,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Pronostic</t>
+          <t>Microscopie</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Taux de récidive élevé (60-85%)
-Risque élevé de progression vers une tumeur infiltrante (20 à 35%)</t>
+          <t>Diagnostic différentiel morphologique</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Carcinome urothélial papillaire non infiltrant de bas grade</t>
         </is>
       </c>
     </row>
@@ -561,7 +578,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Carcinome_uroth%C3%A9lial_papillaire_non_infiltrant_de_haut_grade</t>
+          <t>Carcinome_urothélial_papillaire_non_infiltrant_de_haut_grade</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,10 +593,45 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Pronostic</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Taux de récidive élevé (60-85%)
+Risque élevé de progression vers une tumeur infiltrante (20 à 35%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Carcinome_urothélial_papillaire_non_infiltrant_de_haut_grade</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Carcinome_uroth%C3%A9lial_papillaire_non_infiltrant_de_haut_grade</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Traitement - Prise en charge</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>BCG-thérapie</t>
         </is>
